--- a/wn_ln_wp_lp.xlsx
+++ b/wn_ln_wp_lp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>L</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Lp</t>
+  </si>
+  <si>
+    <t>kpp</t>
+  </si>
+  <si>
+    <t>kpn</t>
   </si>
 </sst>
 </file>
@@ -372,47 +378,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>1.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -420,8 +450,14 @@
         <f>B3*B4</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -430,24 +466,38 @@
         <v>11.654411764705884</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>E2*(E5/E3)</f>
+        <v>0.19039999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <f>B6*B7</f>
-        <v>2.5639705882352946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.913602941176471</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <f>E1*(E4/E3)</f>
+        <v>0.1585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -455,7 +505,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
